--- a/results/mp/deberta/corona/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
@@ -91,25 +91,25 @@
     <t>positive</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>relief</t>
@@ -1053,25 +1053,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.658008658008658</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L17">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1079,13 +1079,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6521739130434783</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>0.9399999999999999</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1105,25 +1105,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6444444444444445</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L19">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="M19">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1183,25 +1183,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5548780487804879</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L22">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1209,25 +1209,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5441176470588235</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="10:17">
